--- a/docs/일정.xlsx
+++ b/docs/일정.xlsx
@@ -631,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,9 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,7 +1140,7 @@
   <dimension ref="A1:AD50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH45" sqref="AH45"/>
+      <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2321,7 +2318,7 @@
       <c r="X49" s="58"/>
       <c r="Y49" s="58"/>
       <c r="Z49" s="62"/>
-      <c r="AA49" s="68"/>
+      <c r="AA49" s="40"/>
       <c r="AB49" s="40"/>
       <c r="AC49" s="40"/>
       <c r="AD49" s="59"/>
